--- a/branches/master/CodeSystem-prod-type-cs.xlsx
+++ b/branches/master/CodeSystem-prod-type-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-23T13:20:42+00:00</t>
+    <t>2022-05-23T17:22:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/CodeSystem-prod-type-cs.xlsx
+++ b/branches/master/CodeSystem-prod-type-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-23T17:22:42+00:00</t>
+    <t>2022-05-26T15:10:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/CodeSystem-prod-type-cs.xlsx
+++ b/branches/master/CodeSystem-prod-type-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-26T15:10:33+00:00</t>
+    <t>2022-05-26T16:44:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/CodeSystem-prod-type-cs.xlsx
+++ b/branches/master/CodeSystem-prod-type-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-26T16:44:55+00:00</t>
+    <t>2022-05-29T06:24:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/CodeSystem-prod-type-cs.xlsx
+++ b/branches/master/CodeSystem-prod-type-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-29T06:24:54+00:00</t>
+    <t>2022-05-29T08:18:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/CodeSystem-prod-type-cs.xlsx
+++ b/branches/master/CodeSystem-prod-type-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-29T08:18:51+00:00</t>
+    <t>2022-05-29T08:21:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/CodeSystem-prod-type-cs.xlsx
+++ b/branches/master/CodeSystem-prod-type-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-29T08:21:05+00:00</t>
+    <t>2022-05-31T09:58:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/CodeSystem-prod-type-cs.xlsx
+++ b/branches/master/CodeSystem-prod-type-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-31T09:58:25+00:00</t>
+    <t>2022-05-31T10:10:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/CodeSystem-prod-type-cs.xlsx
+++ b/branches/master/CodeSystem-prod-type-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-31T10:10:02+00:00</t>
+    <t>2022-05-31T22:14:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/CodeSystem-prod-type-cs.xlsx
+++ b/branches/master/CodeSystem-prod-type-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-31T22:14:36+00:00</t>
+    <t>2022-06-01T13:57:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/CodeSystem-prod-type-cs.xlsx
+++ b/branches/master/CodeSystem-prod-type-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-01T13:57:06+00:00</t>
+    <t>2022-06-01T15:56:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/CodeSystem-prod-type-cs.xlsx
+++ b/branches/master/CodeSystem-prod-type-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-01T15:56:45+00:00</t>
+    <t>2022-06-01T15:57:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/CodeSystem-prod-type-cs.xlsx
+++ b/branches/master/CodeSystem-prod-type-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-01T15:57:53+00:00</t>
+    <t>2022-06-06T08:53:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/CodeSystem-prod-type-cs.xlsx
+++ b/branches/master/CodeSystem-prod-type-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-06T08:53:46+00:00</t>
+    <t>2022-06-06T12:38:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/CodeSystem-prod-type-cs.xlsx
+++ b/branches/master/CodeSystem-prod-type-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-06T12:38:00+00:00</t>
+    <t>2022-06-07T12:41:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/CodeSystem-prod-type-cs.xlsx
+++ b/branches/master/CodeSystem-prod-type-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-07T12:41:09+00:00</t>
+    <t>2022-06-07T12:51:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/CodeSystem-prod-type-cs.xlsx
+++ b/branches/master/CodeSystem-prod-type-cs.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>https://fhirbender.github.io/mpd-box/CodeSystem/prod-type-cs</t>
+    <t>https://medigree.github.io/mpd/CodeSystem/prod-type-cs</t>
   </si>
   <si>
     <t>Version</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-07T12:51:30+00:00</t>
+    <t>2022-06-08T14:01:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/CodeSystem-prod-type-cs.xlsx
+++ b/branches/master/CodeSystem-prod-type-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-08T14:01:48+00:00</t>
+    <t>2022-06-10T09:36:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/CodeSystem-prod-type-cs.xlsx
+++ b/branches/master/CodeSystem-prod-type-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-10T09:36:45+00:00</t>
+    <t>2022-06-13T16:57:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/CodeSystem-prod-type-cs.xlsx
+++ b/branches/master/CodeSystem-prod-type-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-13T16:57:46+00:00</t>
+    <t>2022-06-28T09:17:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/CodeSystem-prod-type-cs.xlsx
+++ b/branches/master/CodeSystem-prod-type-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-28T09:17:31+00:00</t>
+    <t>2022-06-28T12:38:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/CodeSystem-prod-type-cs.xlsx
+++ b/branches/master/CodeSystem-prod-type-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-28T12:38:26+00:00</t>
+    <t>2022-09-30T13:06:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/CodeSystem-prod-type-cs.xlsx
+++ b/branches/master/CodeSystem-prod-type-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-30T13:06:24+00:00</t>
+    <t>2022-10-08T08:36:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/CodeSystem-prod-type-cs.xlsx
+++ b/branches/master/CodeSystem-prod-type-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-08T08:36:27+00:00</t>
+    <t>2022-10-08T08:41:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/CodeSystem-prod-type-cs.xlsx
+++ b/branches/master/CodeSystem-prod-type-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-08T08:41:45+00:00</t>
+    <t>2022-10-08T08:44:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/CodeSystem-prod-type-cs.xlsx
+++ b/branches/master/CodeSystem-prod-type-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-08T08:44:11+00:00</t>
+    <t>2022-10-08T08:47:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/CodeSystem-prod-type-cs.xlsx
+++ b/branches/master/CodeSystem-prod-type-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-08T08:47:47+00:00</t>
+    <t>2022-10-08T09:43:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
